--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,299 +417,288 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39765</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="E2">
+        <v>0.4944284391569687</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>40130</v>
       </c>
       <c r="B3">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C3">
+        <v>-0.5555135891318952</v>
       </c>
       <c r="D3">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E3">
-        <v>-0.7420476828353562</v>
+        <v>-0.4782015746048418</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40130</v>
+        <v>40494</v>
       </c>
       <c r="B4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C4">
-        <v>-0.5555135891318952</v>
+        <v>0.8442071301477228</v>
       </c>
       <c r="D4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E4">
-        <v>0.2972988696328782</v>
+        <v>1.324233212457782</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40494</v>
+        <v>40862</v>
       </c>
       <c r="B5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C5">
-        <v>0.8442071301477228</v>
+        <v>1.122475521884692</v>
       </c>
       <c r="D5">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E5">
-        <v>1.013480763294794</v>
+        <v>0.7478380109886329</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40862</v>
+        <v>41228</v>
       </c>
       <c r="B6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.122475521884692</v>
+        <v>-0.578174579726376</v>
       </c>
       <c r="D6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E6">
-        <v>-0.4258007569310829</v>
+        <v>-0.2445716668737163</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41228</v>
+        <v>41592</v>
       </c>
       <c r="B7">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C7">
-        <v>-0.578174579726376</v>
+        <v>-0.7492845378401558</v>
       </c>
       <c r="D7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E7">
-        <v>-0.7514559363454909</v>
+        <v>-0.2617076051026235</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41592</v>
+        <v>41957</v>
       </c>
       <c r="B8">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C8">
-        <v>-0.7492845378401558</v>
+        <v>0.2751437421933511</v>
       </c>
       <c r="D8">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E8">
-        <v>0.2199740425759433</v>
+        <v>-0.100009932057743</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>41957</v>
+        <v>42321</v>
       </c>
       <c r="B9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C9">
-        <v>0.2751437421933511</v>
+        <v>0.07468705617190707</v>
       </c>
       <c r="D9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E9">
-        <v>-0.08253785766044741</v>
+        <v>0.3000376062062493</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42321</v>
+        <v>42689</v>
       </c>
       <c r="B10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C10">
-        <v>0.07468705617190707</v>
+        <v>-0.05493014849097255</v>
       </c>
       <c r="D10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E10">
-        <v>-0.05493014849097255</v>
+        <v>0.1740313431290996</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>42689</v>
+        <v>43053</v>
       </c>
       <c r="B11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C11">
-        <v>-0.05493014849097255</v>
+        <v>0.2820931576894115</v>
       </c>
       <c r="D11">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E11">
-        <v>0.1772374095820428</v>
+        <v>0.3390041783450259</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43053</v>
+        <v>43418</v>
       </c>
       <c r="B12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C12">
-        <v>0.2820931576894115</v>
+        <v>0.2343541283920114</v>
       </c>
       <c r="D12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E12">
-        <v>0.4722128445998619</v>
+        <v>0.2210188332817387</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43418</v>
+        <v>43783</v>
       </c>
       <c r="B13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C13">
-        <v>0.2343541283920114</v>
+        <v>-0.009430310228020211</v>
       </c>
       <c r="D13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E13">
-        <v>0.33359684781058</v>
+        <v>-0.09571633453315798</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>43783</v>
+        <v>44159</v>
       </c>
       <c r="B14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.009430310228020211</v>
+        <v>-2.657403949513992</v>
       </c>
       <c r="D14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E14">
-        <v>-0.09195392075255215</v>
+        <v>-1.49562970548649</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44159</v>
+        <v>44525</v>
       </c>
       <c r="B15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C15">
-        <v>-2.657403949513992</v>
+        <v>-0.3096364143617802</v>
       </c>
       <c r="D15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E15">
-        <v>-1.0544282406034</v>
+        <v>-0.1048501255800471</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44525</v>
+        <v>44890</v>
       </c>
       <c r="B16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C16">
-        <v>-0.3096364143617802</v>
+        <v>-0.1730430455425092</v>
       </c>
       <c r="D16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.5763850579771912</v>
+        <v>0.9692952624595019</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>44890</v>
+        <v>45254</v>
       </c>
       <c r="B17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.1730430455425092</v>
+        <v>0.6376744206510576</v>
       </c>
       <c r="D17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.5522675992340798</v>
+        <v>0.1544084105021826</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45254</v>
+        <v>45618</v>
       </c>
       <c r="B18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.6376744206510576</v>
+        <v>0.1856341247700399</v>
       </c>
       <c r="D18">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.2066385473532328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>45618</v>
-      </c>
-      <c r="B19">
-        <v>2024</v>
-      </c>
-      <c r="C19">
-        <v>0.1856341247700399</v>
-      </c>
-      <c r="D19">
-        <v>2025</v>
-      </c>
-      <c r="E19">
-        <v>0.1605926478871034</v>
+        <v>0.3997355152047577</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,288 +417,308 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>2.070003986395053</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>0.4944284391569687</v>
+        <v>0.6967455006573253</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>0.517569958955022</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>-0.5555135891318952</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
-      </c>
       <c r="E3">
-        <v>-0.4782015746048418</v>
+        <v>-0.6367039903686034</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>-3.956152295564896</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>0.8442071301477228</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
-      </c>
       <c r="E4">
-        <v>1.324233212457782</v>
+        <v>-0.6950853968889392</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>1.234995474941392</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>1.122475521884692</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
-      </c>
       <c r="E5">
-        <v>0.7478380109886329</v>
+        <v>-0.2098161877568061</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>0.899360810820804</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>-0.578174579726376</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>-0.2445716668737163</v>
+        <v>1.205741443109987</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>0.9010266119894084</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>-0.7492845378401558</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>-0.2617076051026235</v>
+        <v>1.531699207045123</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>0.02019328874804938</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>0.2751437421933511</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>-0.100009932057743</v>
+        <v>-0.1259279434590921</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>0.1729981757035093</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>0.07468705617190707</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>0.3000376062062493</v>
+        <v>0.1749537368921361</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>0.09752710595589686</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>-0.05493014849097255</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>0.1740313431290996</v>
+        <v>-0.001769149545471915</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>-0.5280591151586633</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>0.2820931576894115</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>0.3390041783450259</v>
+        <v>-0.05116199209030947</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>0.07201851318385799</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>0.2343541283920114</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>0.2210188332817387</v>
+        <v>0.2735900898381383</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>0.3727661260635617</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>-0.009430310228020211</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>-0.09571633453315798</v>
+        <v>-0.9505847809128332</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>-0.801759526476209</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>-2.657403949513992</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>-1.49562970548649</v>
+        <v>0.047674034857903</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>-1.103489789942047</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>-0.3096364143617802</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>-0.1048501255800471</v>
+        <v>1.605918384453009</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>0.9704846793491928</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>-0.1730430455425092</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>0.9692952624595019</v>
+        <v>-0.8255212498362474</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>-0.7009264669202708</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>0.6376744206510576</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>0.1544084105021826</v>
+        <v>0.6624163082313173</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>0.3928252664241905</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>0.302295480375836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>0.1856341247700399</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>0.3224026462283813</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>0.3997355152047577</v>
+      <c r="E19">
+        <v>-0.7618983399156787</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_winter.xlsx
@@ -650,7 +650,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>1.605918384453009</v>
+        <v>0.9394308447247202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +667,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>-0.8255212498362474</v>
+        <v>-0.8754609427830462</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,7 +684,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>0.6624163082313173</v>
+        <v>-0.4769809874827891</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +701,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>0.302295480375836</v>
+        <v>0.1224005736915057</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,7 +718,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>-0.7618983399156787</v>
+        <v>-0.9749878381047017</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_winter.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>2.070003986395053</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>0.6967455006573253</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>0.517569958955022</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>-0.6367039903686034</v>
+        <v>-0.6367039903685923</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +448,7 @@
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>-3.956152295564896</v>
+        <v>-3.956152295564885</v>
       </c>
       <c r="D4">
         <v>2010</v>
@@ -474,13 +465,13 @@
         <v>2010</v>
       </c>
       <c r="C5">
-        <v>1.234995474941392</v>
+        <v>1.234995474941436</v>
       </c>
       <c r="D5">
         <v>2011</v>
       </c>
       <c r="E5">
-        <v>-0.2098161877568061</v>
+        <v>-0.209816187756795</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +482,7 @@
         <v>2011</v>
       </c>
       <c r="C6">
-        <v>0.899360810820804</v>
+        <v>0.8993608108207818</v>
       </c>
       <c r="D6">
         <v>2012</v>
@@ -525,7 +516,7 @@
         <v>2013</v>
       </c>
       <c r="C8">
-        <v>0.02019328874804938</v>
+        <v>0.02019328874802717</v>
       </c>
       <c r="D8">
         <v>2014</v>
@@ -565,7 +556,7 @@
         <v>2016</v>
       </c>
       <c r="E10">
-        <v>-0.001769149545471915</v>
+        <v>-0.001769149545449711</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -593,7 +584,7 @@
         <v>2017</v>
       </c>
       <c r="C12">
-        <v>0.07201851318385799</v>
+        <v>0.0720185131838802</v>
       </c>
       <c r="D12">
         <v>2018</v>
@@ -616,7 +607,7 @@
         <v>2019</v>
       </c>
       <c r="E13">
-        <v>-0.9505847809128332</v>
+        <v>-0.950584780912811</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +618,13 @@
         <v>2019</v>
       </c>
       <c r="C14">
-        <v>-0.801759526476209</v>
+        <v>-0.8017595264762423</v>
       </c>
       <c r="D14">
         <v>2020</v>
       </c>
       <c r="E14">
-        <v>0.047674034857903</v>
+        <v>0.0476740348578808</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -661,13 +652,13 @@
         <v>2021</v>
       </c>
       <c r="C16">
-        <v>0.9704846793491928</v>
+        <v>0.9704846793491706</v>
       </c>
       <c r="D16">
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>-0.8754609427830462</v>
+        <v>-0.8754609427830351</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -695,7 +686,7 @@
         <v>2023</v>
       </c>
       <c r="C18">
-        <v>0.3928252664241905</v>
+        <v>0.3928252664241683</v>
       </c>
       <c r="D18">
         <v>2024</v>
@@ -712,13 +703,13 @@
         <v>2024</v>
       </c>
       <c r="C19">
-        <v>0.3224026462283813</v>
+        <v>0.3224026462283369</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>-0.9749878381047017</v>
+        <v>-0.9749878381046684</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AVERAGE_10_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,6 +712,23 @@
         <v>-0.9749878381046684</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>-2.06674933094535</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>-0.9969640812590996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
